--- a/data/CS_320.xlsx
+++ b/data/CS_320.xlsx
@@ -71,6 +71,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -521,17 +589,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>696-56-4353</t>
+          <t>055-65-2071</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Kane</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -545,60 +613,48 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>36413</v>
+        <v>35971</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>67964 Murphy Causeway Suite 315
-Gilltown, MO 92200</t>
+          <t>02611 Wilson Port Suite 957
+Sullivanland, AZ 01688</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>cindy03@gmail.com</t>
+          <t>riddlenathan@yahoo.com</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
+        <v>78</v>
+      </c>
+      <c r="K2" t="n">
         <v>82</v>
       </c>
-      <c r="K2" t="n">
-        <v>84</v>
-      </c>
-      <c r="L2" t="n">
-        <v>86</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>82</v>
-      </c>
-      <c r="P2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>84</v>
-      </c>
-      <c r="R2" t="n">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>81</v>
-      </c>
-      <c r="T2" t="n">
-        <v>86</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="V2" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -607,13 +663,13 @@
         <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.69</v>
+        <v>4.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.4</v>
+        <v>5.88</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -629,22 +685,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>052-60-0496</t>
+          <t>690-03-3273</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Fleming</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -653,60 +709,48 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>36506</v>
+        <v>36307</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>68898 Erica Branch Suite 787
-New Deborah, LA 27674</t>
+          <t>699 Thomas Mountain Apt. 249
+Lake Christinehaven, FL 80827</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>archerjames@gmail.com</t>
+          <t>jordaneric@yahoo.com</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J3" t="n">
+        <v>72</v>
+      </c>
+      <c r="K3" t="n">
         <v>74</v>
       </c>
-      <c r="K3" t="n">
-        <v>75</v>
-      </c>
-      <c r="L3" t="n">
-        <v>76</v>
-      </c>
-      <c r="M3" t="n">
-        <v>76</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O3" t="n">
         <v>75</v>
       </c>
-      <c r="P3" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>76</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>76</v>
-      </c>
-      <c r="T3" t="n">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>97.48</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -715,13 +759,13 @@
         <v>100</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.88</v>
+        <v>3.51</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.95</v>
+        <v>5.27</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -737,99 +781,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>174-83-5750</t>
+          <t>829-26-6600</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Faulkner</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>White</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="n">
-        <v>36146</v>
+        <v>36733</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3888 Jones Roads Suite 028
-East Taramouth, MO 89746</t>
+          <t>144 Anthony Manors
+South Gina, RI 95858</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>edwardallen@hotmail.com</t>
+          <t>townsendtroy@yahoo.com</t>
         </is>
       </c>
       <c r="I4" t="n">
+        <v>89</v>
+      </c>
+      <c r="J4" t="n">
+        <v>90</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>87</v>
       </c>
-      <c r="J4" t="n">
-        <v>83</v>
-      </c>
-      <c r="K4" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" t="n">
-        <v>82</v>
-      </c>
-      <c r="M4" t="n">
-        <v>87</v>
-      </c>
-      <c r="N4" t="n">
-        <v>85</v>
-      </c>
       <c r="O4" t="n">
-        <v>81</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>81</v>
-      </c>
-      <c r="R4" t="n">
-        <v>84</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>79</v>
-      </c>
-      <c r="T4" t="n">
-        <v>85</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>80.03</v>
+        <v>98.13</v>
       </c>
       <c r="V4" t="n">
-        <v>19.97</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>92.64</v>
+        <v>90.63</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.46</v>
+        <v>7.98</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -845,22 +877,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>654-60-3598</t>
+          <t>755-16-9441</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Misty</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cole</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -869,60 +901,48 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>37167</v>
+        <v>36818</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PSC 8873, Box 5217
-APO AA 68272</t>
+          <t>7543 Ross Pines
+Lake Aimeeland, LA 81654</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kellyjones@yahoo.com</t>
+          <t>iaustin@hotmail.com</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
-      </c>
-      <c r="L5" t="n">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O5" t="n">
-        <v>74</v>
-      </c>
-      <c r="P5" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>72</v>
-      </c>
-      <c r="R5" t="n">
-        <v>71</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>72</v>
-      </c>
-      <c r="T5" t="n">
-        <v>75</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>97.72</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -931,13 +951,13 @@
         <v>100</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.9</v>
+        <v>6.46</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.18</v>
+        <v>6.02</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -953,22 +973,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>088-09-5994</t>
+          <t>228-25-9621</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -977,75 +997,63 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>36041</v>
+        <v>36396</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>950 Jason Passage
-East Miranda, IA 10793</t>
+          <t>19842 Murphy Lakes
+South Jennifer, MI 14892</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>qwarner@yahoo.com</t>
+          <t>tanyameyers@gmail.com</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K6" t="n">
-        <v>74</v>
-      </c>
-      <c r="L6" t="n">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O6" t="n">
-        <v>78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>74</v>
-      </c>
-      <c r="R6" t="n">
-        <v>80</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>74</v>
-      </c>
-      <c r="T6" t="n">
-        <v>76</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
+        <v>94.98999999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>100</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>90.81999999999999</v>
-      </c>
       <c r="Y6" t="n">
-        <v>4.21</v>
+        <v>4.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.51</v>
+        <v>3.63</v>
       </c>
       <c r="AA6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1061,17 +1069,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>133-93-2678</t>
+          <t>668-91-4860</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Terry</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gallagher</t>
+          <t>Welch</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1085,60 +1093,48 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>36905</v>
+        <v>36675</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>578 White Fork
-Anthonyhaven, WV 54133</t>
+          <t>0865 Holloway Burg Suite 768
+Lake Ryan, NM 22331</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>tkennedy@yahoo.com</t>
+          <t>zscott@yahoo.com</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J7" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" t="n">
-        <v>78</v>
-      </c>
-      <c r="L7" t="n">
-        <v>83</v>
-      </c>
-      <c r="M7" t="n">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O7" t="n">
-        <v>77</v>
-      </c>
-      <c r="P7" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>82</v>
-      </c>
-      <c r="R7" t="n">
         <v>81</v>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>78</v>
-      </c>
-      <c r="T7" t="n">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>88.59</v>
+        <v>100</v>
       </c>
       <c r="V7" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,10 +1143,10 @@
         <v>100</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.91</v>
+        <v>4.65</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="AA7" t="n">
         <v>2</v>
@@ -1169,99 +1165,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>305-05-0679</t>
+          <t>150-09-5977</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bethany</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cisneros</t>
+          <t>Blair</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>35835</v>
+        <v>36796</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>233 Hayley Port Apt. 578
-Lake David, RI 88969</t>
+          <t>55636 Jeremy Circle
+Ashleyfurt, OH 30527</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>sdorsey@yahoo.com</t>
+          <t>holly18@yahoo.com</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J8" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K8" t="n">
-        <v>72</v>
-      </c>
-      <c r="L8" t="n">
-        <v>72</v>
-      </c>
-      <c r="M8" t="n">
-        <v>72</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O8" t="n">
-        <v>73</v>
-      </c>
-      <c r="P8" t="n">
-        <v>71</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>71</v>
-      </c>
-      <c r="R8" t="n">
-        <v>71</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>72</v>
-      </c>
-      <c r="T8" t="n">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>96.03</v>
+        <v>98.7</v>
       </c>
       <c r="V8" t="n">
-        <v>3.97</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>100</v>
+        <v>83.77</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.12</v>
+        <v>5.46</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.51</v>
+        <v>5.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1277,99 +1261,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>681-41-5377</t>
+          <t>699-45-3416</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hill</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>36876</v>
+        <v>36755</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>319 Hughes Meadow Apt. 970
-North Jenniferside, SC 49066</t>
+          <t>112 Andre Shore
+Angelicaton, NH 60206</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>michael16@yahoo.com</t>
+          <t>savagedeborah@gmail.com</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K9" t="n">
-        <v>85</v>
-      </c>
-      <c r="L9" t="n">
-        <v>86</v>
-      </c>
-      <c r="M9" t="n">
-        <v>86</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O9" t="n">
-        <v>84</v>
-      </c>
-      <c r="P9" t="n">
-        <v>85</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>85</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>84</v>
-      </c>
-      <c r="T9" t="n">
-        <v>83</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>78.83</v>
+        <v>100</v>
       </c>
       <c r="V9" t="n">
-        <v>21.17</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>82.06999999999999</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.8</v>
+        <v>5.88</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.59</v>
+        <v>6.87</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1385,99 +1357,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>888-51-1932</t>
+          <t>356-65-0011</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Roberts</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>37231</v>
+        <v>35836</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9752 Emily Harbor Suite 919
-Jonesborough, WA 70590</t>
+          <t>966 Tammy Park Apt. 701
+Brownfurt, TX 15413</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>hannahmontgomery@yahoo.com</t>
+          <t>lonniestokes@hotmail.com</t>
         </is>
       </c>
       <c r="I10" t="n">
+        <v>79</v>
+      </c>
+      <c r="J10" t="n">
         <v>78</v>
       </c>
-      <c r="J10" t="n">
-        <v>74</v>
-      </c>
       <c r="K10" t="n">
-        <v>80</v>
-      </c>
-      <c r="L10" t="n">
-        <v>80</v>
-      </c>
-      <c r="M10" t="n">
         <v>78</v>
       </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O10" t="n">
-        <v>74</v>
-      </c>
-      <c r="P10" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>77</v>
-      </c>
-      <c r="R10" t="n">
         <v>78</v>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>74</v>
-      </c>
-      <c r="T10" t="n">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>90.03</v>
+        <v>100</v>
       </c>
       <c r="V10" t="n">
-        <v>9.970000000000001</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.74</v>
+        <v>2.88</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.97</v>
+        <v>6.11</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1493,17 +1453,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>334-75-5234</t>
+          <t>401-40-2477</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Cole</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Schneider</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1517,60 +1477,48 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>36145</v>
+        <v>36041</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>36772 Michael Greens
-Dixonmouth, AL 89100</t>
+          <t>840 Brown Stravenue
+West Garymouth, WY 31327</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ptaylor@hotmail.com</t>
+          <t>colleen62@hotmail.com</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>79</v>
       </c>
       <c r="J11" t="n">
+        <v>85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>87</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>81</v>
+      </c>
+      <c r="O11" t="n">
+        <v>90</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
         <v>83</v>
       </c>
-      <c r="K11" t="n">
-        <v>84</v>
-      </c>
-      <c r="L11" t="n">
-        <v>89</v>
-      </c>
-      <c r="M11" t="n">
-        <v>90</v>
-      </c>
-      <c r="N11" t="n">
-        <v>82</v>
-      </c>
-      <c r="O11" t="n">
-        <v>83</v>
-      </c>
-      <c r="P11" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>87</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89</v>
-      </c>
-      <c r="S11" t="n">
-        <v>84</v>
-      </c>
-      <c r="T11" t="n">
-        <v>87</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>92.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1579,13 +1527,13 @@
         <v>100</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.11</v>
+        <v>5.29</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.15</v>
+        <v>3.33</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1601,99 +1549,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>559-27-4867</t>
+          <t>647-82-2195</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Yang</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>36414</v>
+        <v>37161</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4329 Warren Islands Suite 345
-Williamview, ID 11145</t>
+          <t>81268 Hicks Street
+Maysberg, SC 47685</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>timothypacheco@hotmail.com</t>
+          <t>boothtiffany@yahoo.com</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" t="n">
-        <v>88</v>
-      </c>
-      <c r="L12" t="n">
-        <v>89</v>
-      </c>
-      <c r="M12" t="n">
-        <v>90</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O12" t="n">
-        <v>84</v>
-      </c>
-      <c r="P12" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>88</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>85</v>
-      </c>
-      <c r="T12" t="n">
-        <v>88</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
+        <v>92.91</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>100</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>97.52</v>
-      </c>
       <c r="Y12" t="n">
-        <v>4.7</v>
+        <v>5.41</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.01</v>
+        <v>3.49</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1709,22 +1645,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223-67-8222</t>
+          <t>121-38-4249</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Roberts</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1733,60 +1669,48 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>36686</v>
+        <v>36145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0123 Barnes Road
-Patelmouth, AZ 96144</t>
+          <t>2721 Alexis Highway
+North Jacquelinemouth, CT 79726</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>pphillips@hotmail.com</t>
+          <t>laurencervantes@gmail.com</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J13" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>72</v>
-      </c>
-      <c r="L13" t="n">
-        <v>76</v>
-      </c>
-      <c r="M13" t="n">
+        <v>81</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>81</v>
+      </c>
+      <c r="O13" t="n">
+        <v>82</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
         <v>80</v>
       </c>
-      <c r="N13" t="n">
-        <v>71</v>
-      </c>
-      <c r="O13" t="n">
-        <v>73</v>
-      </c>
-      <c r="P13" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>74</v>
-      </c>
-      <c r="R13" t="n">
-        <v>77</v>
-      </c>
-      <c r="S13" t="n">
-        <v>73</v>
-      </c>
-      <c r="T13" t="n">
-        <v>77</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>100</v>
+        <v>99.37</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1795,13 +1719,13 @@
         <v>100</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.31</v>
+        <v>5.55</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.78</v>
+        <v>5.21</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1817,17 +1741,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>083-15-0177</t>
+          <t>001-94-4637</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Cummings</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1841,75 +1765,63 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>36428</v>
+        <v>36785</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>656 Adams Parkway Suite 071
-Kylebury, SC 82421</t>
+          <t>3461 Kevin Mountain
+East Courtneyside, RI 34561</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>pattersonsergio@gmail.com</t>
+          <t>woodsmatthew@gmail.com</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K14" t="n">
-        <v>97</v>
-      </c>
-      <c r="L14" t="n">
-        <v>94</v>
-      </c>
-      <c r="M14" t="n">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O14" t="n">
-        <v>97</v>
-      </c>
-      <c r="P14" t="n">
+        <v>75</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>73</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="V14" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>100</v>
       </c>
-      <c r="Q14" t="n">
-        <v>96</v>
-      </c>
-      <c r="R14" t="n">
-        <v>90</v>
-      </c>
-      <c r="S14" t="n">
-        <v>96</v>
-      </c>
-      <c r="T14" t="n">
-        <v>84</v>
-      </c>
-      <c r="U14" t="n">
-        <v>91.31999999999999</v>
-      </c>
-      <c r="V14" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>95.72</v>
-      </c>
       <c r="Y14" t="n">
-        <v>7.87</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.55</v>
+        <v>5.88</v>
       </c>
       <c r="AA14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -1925,99 +1837,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>380-43-9583</t>
+          <t>045-73-6319</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>36306</v>
+        <v>35796</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2566 Walter Springs Apt. 708
-East Rhonda, CO 79979</t>
+          <t>033 Kenneth Lodge Suite 969
+Port Kevin, CA 43702</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>stacey24@yahoo.com</t>
+          <t>matthewhill@gmail.com</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J15" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K15" t="n">
-        <v>79</v>
-      </c>
-      <c r="L15" t="n">
-        <v>85</v>
-      </c>
-      <c r="M15" t="n">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O15" t="n">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
         <v>82</v>
       </c>
-      <c r="Q15" t="n">
-        <v>84</v>
-      </c>
-      <c r="R15" t="n">
-        <v>85</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>76</v>
-      </c>
-      <c r="T15" t="n">
         <v>82</v>
       </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>67.31</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>32.69</v>
+        <v>5.96</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>100</v>
+        <v>97.89</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.43</v>
+        <v>4.98</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.71</v>
+        <v>4.12</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2033,22 +1933,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>229-49-7724</t>
+          <t>343-11-1349</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Mccormick</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2057,72 +1957,60 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>36410</v>
+        <v>35683</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PSC 5177, Box 9992
-APO AP 23030</t>
+          <t>92109 Christopher Fork
+Port Lisa, OK 69076</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>paulvargas@hotmail.com</t>
+          <t>nvaldez@gmail.com</t>
         </is>
       </c>
       <c r="I16" t="n">
+        <v>74</v>
+      </c>
+      <c r="J16" t="n">
+        <v>78</v>
+      </c>
+      <c r="K16" t="n">
+        <v>76</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>78</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
         <v>77</v>
       </c>
-      <c r="J16" t="n">
-        <v>80</v>
-      </c>
-      <c r="K16" t="n">
-        <v>79</v>
-      </c>
-      <c r="L16" t="n">
-        <v>80</v>
-      </c>
-      <c r="M16" t="n">
-        <v>80</v>
-      </c>
-      <c r="N16" t="n">
-        <v>79</v>
-      </c>
-      <c r="O16" t="n">
-        <v>80</v>
-      </c>
-      <c r="P16" t="n">
-        <v>79</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>78</v>
-      </c>
-      <c r="R16" t="n">
-        <v>81</v>
-      </c>
-      <c r="S16" t="n">
-        <v>79</v>
-      </c>
-      <c r="T16" t="n">
-        <v>80</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>99.03</v>
+        <v>76.14</v>
       </c>
       <c r="V16" t="n">
-        <v>0.97</v>
+        <v>23.86</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>90.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.29</v>
+        <v>4.16</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.04</v>
+        <v>5.27</v>
       </c>
       <c r="AA16" t="n">
         <v>4</v>
@@ -2141,22 +2029,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>187-50-1017</t>
+          <t>227-77-8717</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>Wanda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2165,75 +2053,63 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>36124</v>
+        <v>36862</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8582 Jones Lodge
-North Samanthaton, VT 80028</t>
+          <t>71329 Allen Island Apt. 807
+Nicholasborough, OH 83325</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fvega@yahoo.com</t>
+          <t>canderson@hotmail.com</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J17" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
-      </c>
-      <c r="L17" t="n">
-        <v>67</v>
-      </c>
-      <c r="M17" t="n">
-        <v>69</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="O17" t="n">
-        <v>66</v>
-      </c>
-      <c r="P17" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>64</v>
-      </c>
-      <c r="R17" t="n">
-        <v>68</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>65</v>
-      </c>
-      <c r="T17" t="n">
-        <v>70</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>81.09</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V17" t="n">
-        <v>18.91</v>
+        <v>3.4</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>60.24</v>
+        <v>100</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.9</v>
+        <v>6.73</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.06</v>
+        <v>4.99</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2249,17 +2125,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>327-08-5068</t>
+          <t>061-39-3656</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Stacy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vasquez</t>
+          <t>Pena</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2269,79 +2145,67 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>36239</v>
+        <v>36457</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7304 Joshua Cape Apt. 513
-Johnfurt, MT 25989</t>
+          <t>9873 Mary Roads
+East Nicolefurt, TN 97221</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>howardmargaret@gmail.com</t>
+          <t>davidray@hotmail.com</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J18" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K18" t="n">
-        <v>73</v>
-      </c>
-      <c r="L18" t="n">
-        <v>75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>76</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O18" t="n">
-        <v>74</v>
-      </c>
-      <c r="P18" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>75</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>73</v>
-      </c>
-      <c r="T18" t="n">
-        <v>74</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>90.56999999999999</v>
+        <v>91.89</v>
       </c>
       <c r="V18" t="n">
-        <v>9.43</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>99.16</v>
+        <v>100</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.58</v>
+        <v>6.23</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.99</v>
+        <v>4.55</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2357,22 +2221,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>648-73-0620</t>
+          <t>355-71-7425</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Baker</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2381,55 +2245,43 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>36707</v>
+        <v>36054</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>766 Jennifer Hollow
-Buchananmouth, VT 31051</t>
+          <t>251 Richard Ways
+Bradleyport, ID 52984</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>curtisadrian@yahoo.com</t>
+          <t>kaiserdavid@gmail.com</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J19" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" t="n">
         <v>77</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>77</v>
       </c>
-      <c r="M19" t="n">
-        <v>77</v>
-      </c>
-      <c r="N19" t="n">
-        <v>72</v>
-      </c>
       <c r="O19" t="n">
-        <v>77</v>
-      </c>
-      <c r="P19" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>73</v>
-      </c>
-      <c r="R19" t="n">
-        <v>76</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>77</v>
-      </c>
-      <c r="T19" t="n">
         <v>75</v>
       </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
         <v>100</v>
       </c>
@@ -2440,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>100</v>
+        <v>99.58</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.33</v>
+        <v>4.63</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.07</v>
+        <v>4.13</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2465,17 +2317,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>296-46-9466</t>
+          <t>414-46-0404</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Richards</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2485,79 +2337,67 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>36200</v>
+        <v>35438</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Unit 2608 Box 7693
-DPO AP 47818</t>
+          <t>2992 Hall Spur Apt. 974
+Raymondville, OH 41450</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>mfox@hotmail.com</t>
+          <t>shelby77@yahoo.com</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J20" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K20" t="n">
-        <v>87</v>
-      </c>
-      <c r="L20" t="n">
-        <v>87</v>
-      </c>
-      <c r="M20" t="n">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O20" t="n">
-        <v>85</v>
-      </c>
-      <c r="P20" t="n">
-        <v>85</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>86</v>
-      </c>
-      <c r="R20" t="n">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>85</v>
-      </c>
-      <c r="T20" t="n">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>88.89</v>
+        <v>100</v>
       </c>
       <c r="V20" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>93.48999999999999</v>
+        <v>99.41</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.43</v>
+        <v>3.49</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.63</v>
+        <v>4.59</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2573,17 +2413,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>597-21-7286</t>
+          <t>434-36-3582</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Molly</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brennan</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2593,79 +2433,67 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>36639</v>
+        <v>35747</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7743 Moss Courts
-Marieside, AR 26944</t>
+          <t>324 Jeremy Route
+Daymouth, NM 31250</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>reneegarcia@gmail.com</t>
+          <t>michaelkemp@gmail.com</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K21" t="n">
-        <v>88</v>
-      </c>
-      <c r="L21" t="n">
-        <v>90</v>
-      </c>
-      <c r="M21" t="n">
-        <v>89</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O21" t="n">
-        <v>86</v>
-      </c>
-      <c r="P21" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>90</v>
-      </c>
-      <c r="R21" t="n">
-        <v>89</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>87</v>
-      </c>
-      <c r="T21" t="n">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>82.95</v>
+        <v>100</v>
       </c>
       <c r="V21" t="n">
-        <v>17.05</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>100</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.51</v>
+        <v>4.51</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.87</v>
+        <v>5.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2681,17 +2509,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>246-90-6972</t>
+          <t>306-93-1029</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jon</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2705,60 +2533,48 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>37097</v>
+        <v>36656</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1473 Brian Green
-Port Jason, DC 85102</t>
+          <t>1187 Gloria Viaduct
+North Kristina, MT 20700</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>orodriguez@gmail.com</t>
+          <t>jesse78@hotmail.com</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>73</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>78</v>
       </c>
-      <c r="K22" t="n">
-        <v>76</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="O22" t="n">
+        <v>71</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
         <v>73</v>
       </c>
-      <c r="M22" t="n">
-        <v>74</v>
-      </c>
-      <c r="N22" t="n">
-        <v>80</v>
-      </c>
-      <c r="O22" t="n">
-        <v>79</v>
-      </c>
-      <c r="P22" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>77</v>
-      </c>
-      <c r="R22" t="n">
-        <v>74</v>
-      </c>
-      <c r="S22" t="n">
-        <v>78</v>
-      </c>
-      <c r="T22" t="n">
-        <v>76</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>95.36</v>
+        <v>81.36</v>
       </c>
       <c r="V22" t="n">
-        <v>4.64</v>
+        <v>18.64</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2767,13 +2583,13 @@
         <v>100</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.82</v>
+        <v>4.97</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.61</v>
+        <v>5.99</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2789,17 +2605,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>524-04-4173</t>
+          <t>308-31-9819</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Hodge</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2813,55 +2629,43 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>37059</v>
+        <v>35811</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7547 Torres Mission
-Port Roy, WY 07822</t>
+          <t>5029 Dylan Path Apt. 685
+West Christopherview, WV 30035</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>monroejanice@hotmail.com</t>
+          <t>kleinjack@gmail.com</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>78</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K23" t="n">
-        <v>88</v>
-      </c>
-      <c r="L23" t="n">
-        <v>86</v>
-      </c>
-      <c r="M23" t="n">
-        <v>88</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O23" t="n">
-        <v>84</v>
-      </c>
-      <c r="P23" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>86</v>
-      </c>
-      <c r="R23" t="n">
-        <v>87</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>86</v>
-      </c>
-      <c r="T23" t="n">
-        <v>87</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
         <v>100</v>
       </c>
@@ -2875,13 +2679,13 @@
         <v>100</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.61</v>
+        <v>7.14</v>
       </c>
       <c r="Z23" t="n">
-        <v>5.22</v>
+        <v>8.17</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -2897,17 +2701,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>861-66-6718</t>
+          <t>481-04-9807</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Toni</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kaufman</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2917,59 +2721,47 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>35833</v>
+        <v>36669</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>390 Ramirez Pines Apt. 268
-New Christopherview, CA 89759</t>
+          <t>7319 Riley Springs Apt. 537
+South Deborah, IN 44766</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>johnny39@hotmail.com</t>
+          <t>alancunningham@yahoo.com</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J24" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K24" t="n">
-        <v>71</v>
-      </c>
-      <c r="L24" t="n">
-        <v>77</v>
-      </c>
-      <c r="M24" t="n">
+        <v>82</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>81</v>
+      </c>
+      <c r="O24" t="n">
+        <v>83</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
         <v>78</v>
       </c>
-      <c r="N24" t="n">
-        <v>73</v>
-      </c>
-      <c r="O24" t="n">
-        <v>72</v>
-      </c>
-      <c r="P24" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>75</v>
-      </c>
-      <c r="R24" t="n">
-        <v>77</v>
-      </c>
-      <c r="S24" t="n">
-        <v>70</v>
-      </c>
-      <c r="T24" t="n">
-        <v>78</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
         <v>100</v>
       </c>
@@ -2983,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.42</v>
+        <v>5.43</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.16</v>
+        <v>5.46</v>
       </c>
       <c r="AA24" t="n">
         <v>5</v>
@@ -3005,17 +2797,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>846-72-3467</t>
+          <t>695-09-0146</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Eddie</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mccarty</t>
+          <t>Chavez</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3025,79 +2817,67 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>37076</v>
+        <v>35781</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>830 Stokes Groves
-Port Daniel, NY 42217</t>
+          <t>13360 Rosales Village Suite 330
+Reyeston, IL 19699</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>craig19@gmail.com</t>
+          <t>anita83@yahoo.com</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" t="n">
+        <v>77</v>
+      </c>
+      <c r="K25" t="n">
         <v>80</v>
       </c>
-      <c r="K25" t="n">
-        <v>84</v>
-      </c>
-      <c r="L25" t="n">
-        <v>84</v>
-      </c>
-      <c r="M25" t="n">
-        <v>84</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
+        <v>78</v>
+      </c>
+      <c r="O25" t="n">
         <v>80</v>
       </c>
-      <c r="O25" t="n">
-        <v>79</v>
-      </c>
-      <c r="P25" t="n">
-        <v>83</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>82</v>
-      </c>
-      <c r="R25" t="n">
-        <v>84</v>
-      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>79</v>
-      </c>
-      <c r="T25" t="n">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>96.72</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="V25" t="n">
-        <v>3.28</v>
+        <v>8.9</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>98.61</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.06</v>
+        <v>4.27</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.36</v>
+        <v>7.21</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3113,7 +2893,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>586-49-1795</t>
+          <t>300-85-2283</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3123,7 +2903,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wells</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3133,79 +2913,67 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>35919</v>
+        <v>36769</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5465 Tran Lights Suite 874
-Kyleside, CT 34074</t>
+          <t>45653 Harper Freeway Suite 545
+Port Anthonytown, MI 67945</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>warrenluke@hotmail.com</t>
+          <t>melissamcdaniel@hotmail.com</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K26" t="n">
-        <v>90</v>
-      </c>
-      <c r="L26" t="n">
-        <v>83</v>
-      </c>
-      <c r="M26" t="n">
         <v>81</v>
       </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
-        <v>88</v>
-      </c>
-      <c r="P26" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>85</v>
-      </c>
-      <c r="R26" t="n">
         <v>81</v>
       </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>94</v>
-      </c>
-      <c r="T26" t="n">
-        <v>81</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>94.12</v>
+        <v>64.12</v>
       </c>
       <c r="V26" t="n">
-        <v>5.88</v>
+        <v>35.88</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>89.31999999999999</v>
+        <v>82.17</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.09</v>
+        <v>5.48</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.76</v>
+        <v>5.21</v>
       </c>
       <c r="AA26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3221,22 +2989,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>379-04-5490</t>
+          <t>057-91-0603</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tonya</t>
+          <t>Roberto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Harrison</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3245,75 +3013,63 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>35598</v>
+        <v>36940</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>883 Tara Crossing
-Kelleyville, DC 48840</t>
+          <t>35661 Farmer Vista Apt. 194
+Markshire, KY 03621</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>xbates@gmail.com</t>
+          <t>vdean@yahoo.com</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J27" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="K27" t="n">
-        <v>68</v>
-      </c>
-      <c r="L27" t="n">
-        <v>69</v>
-      </c>
-      <c r="M27" t="n">
-        <v>71</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="O27" t="n">
-        <v>68</v>
-      </c>
-      <c r="P27" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>69</v>
-      </c>
-      <c r="R27" t="n">
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>67</v>
-      </c>
-      <c r="T27" t="n">
-        <v>71</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>78.28</v>
+        <v>100</v>
       </c>
       <c r="V27" t="n">
-        <v>21.72</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>57.35</v>
+        <v>97.84</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.09</v>
+        <v>6.68</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.59</v>
+        <v>7.38</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3329,17 +3085,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>258-39-8976</t>
+          <t>638-66-6813</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Erin</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3349,79 +3105,67 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>36985</v>
+        <v>36626</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>70551 Woods Parks
-Megantown, VT 36090</t>
+          <t>285 Keith Court Suite 723
+Jasonview, DE 86668</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ashleyjames@hotmail.com</t>
+          <t>martinanthony@gmail.com</t>
         </is>
       </c>
       <c r="I28" t="n">
+        <v>68</v>
+      </c>
+      <c r="J28" t="n">
+        <v>75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>80</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>72</v>
+      </c>
+      <c r="O28" t="n">
+        <v>82</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
         <v>78</v>
       </c>
-      <c r="J28" t="n">
-        <v>79</v>
-      </c>
-      <c r="K28" t="n">
-        <v>88</v>
-      </c>
-      <c r="L28" t="n">
-        <v>88</v>
-      </c>
-      <c r="M28" t="n">
-        <v>95</v>
-      </c>
-      <c r="N28" t="n">
-        <v>79</v>
-      </c>
-      <c r="O28" t="n">
-        <v>83</v>
-      </c>
-      <c r="P28" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>88</v>
-      </c>
-      <c r="R28" t="n">
-        <v>91</v>
-      </c>
-      <c r="S28" t="n">
-        <v>86</v>
-      </c>
-      <c r="T28" t="n">
-        <v>95</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
+        <v>96.12</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>100</v>
       </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>72.56</v>
-      </c>
       <c r="Y28" t="n">
-        <v>7.52</v>
+        <v>4.89</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.82</v>
+        <v>4.65</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3437,22 +3181,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>402-18-0253</t>
+          <t>642-17-0600</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lynn</t>
+          <t>Spencer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rogers</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3461,75 +3205,63 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>36866</v>
+        <v>35785</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>156 Taylor Spring
-Port Christopherborough, MN 41960</t>
+          <t>2993 Contreras Plaza
+Lake Amy, NC 32176</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>guywalton@hotmail.com</t>
+          <t>berrygerald@gmail.com</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J29" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K29" t="n">
-        <v>80</v>
-      </c>
-      <c r="L29" t="n">
-        <v>71</v>
-      </c>
-      <c r="M29" t="n">
         <v>76</v>
       </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O29" t="n">
-        <v>81</v>
-      </c>
-      <c r="P29" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>75</v>
-      </c>
-      <c r="R29" t="n">
-        <v>73</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>78</v>
-      </c>
-      <c r="T29" t="n">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>98.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>90.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.89</v>
+        <v>5.78</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.06</v>
+        <v>3.05</v>
       </c>
       <c r="AA29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3545,84 +3277,72 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>651-76-3443</t>
+          <t>595-24-2649</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Vasquez</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>36076</v>
+        <v>36911</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>031 Brown Isle
-Robertfurt, MN 31972</t>
+          <t>757 Thomas Mountain Suite 491
+Piercemouth, WA 65143</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>warnerallison@hotmail.com</t>
+          <t>zpearson@gmail.com</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J30" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K30" t="n">
-        <v>72</v>
-      </c>
-      <c r="L30" t="n">
+        <v>75</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>74</v>
       </c>
-      <c r="M30" t="n">
-        <v>77</v>
-      </c>
-      <c r="N30" t="n">
-        <v>68</v>
-      </c>
       <c r="O30" t="n">
-        <v>73</v>
-      </c>
-      <c r="P30" t="n">
-        <v>73</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>73</v>
-      </c>
-      <c r="R30" t="n">
+        <v>78</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
         <v>76</v>
       </c>
-      <c r="S30" t="n">
-        <v>71</v>
-      </c>
-      <c r="T30" t="n">
-        <v>73</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>94.76000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>5.24</v>
+        <v>0.4</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3631,13 +3351,13 @@
         <v>100</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.69</v>
+        <v>4.41</v>
       </c>
       <c r="Z30" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3653,22 +3373,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>764-37-5441</t>
+          <t>163-55-0855</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dawn</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Clarke</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3677,75 +3397,63 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>35835</v>
+        <v>36466</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9144 Amy Island
-North Adam, CT 17300</t>
+          <t>525 Ward Mall
+Maldonadofurt, OK 39689</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>kellythompson@gmail.com</t>
+          <t>sromero@hotmail.com</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J31" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K31" t="n">
-        <v>85</v>
-      </c>
-      <c r="L31" t="n">
-        <v>78</v>
-      </c>
-      <c r="M31" t="n">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O31" t="n">
-        <v>81</v>
-      </c>
-      <c r="P31" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>79</v>
-      </c>
-      <c r="R31" t="n">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>85</v>
-      </c>
-      <c r="T31" t="n">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>91.90000000000001</v>
+        <v>75.98</v>
       </c>
       <c r="V31" t="n">
-        <v>8.1</v>
+        <v>24.02</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>100</v>
+        <v>59.69</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.89</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>4.55</v>
+        <v>3.05</v>
       </c>
       <c r="AA31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -3927,17 +3635,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>525-19-5726</t>
+          <t>650-74-6986</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Spencer</t>
+          <t>Rios</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3951,75 +3659,75 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>35596</v>
+        <v>35770</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>866 Davis Island
-Laurashire, SC 86501</t>
+          <t>824 Monica Knoll Apt. 111
+Samanthatown, ME 23905</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>velezpamela@gmail.com</t>
+          <t>reedtristan@gmail.com</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
+        <v>86</v>
+      </c>
+      <c r="M2" t="n">
+        <v>88</v>
+      </c>
+      <c r="N2" t="n">
+        <v>83</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82</v>
+      </c>
+      <c r="P2" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>82</v>
+      </c>
+      <c r="R2" t="n">
+        <v>89</v>
+      </c>
+      <c r="S2" t="n">
         <v>81</v>
       </c>
-      <c r="M2" t="n">
-        <v>82</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77</v>
-      </c>
-      <c r="P2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>82</v>
-      </c>
-      <c r="S2" t="n">
-        <v>72</v>
-      </c>
       <c r="T2" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="U2" t="n">
-        <v>94.52</v>
+        <v>96.48</v>
       </c>
       <c r="V2" t="n">
-        <v>5.48</v>
+        <v>3.52</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>77.02</v>
+        <v>94.92</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.59</v>
+        <v>6.39</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.1</v>
+        <v>5.17</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -4035,96 +3743,96 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>396-61-6363</t>
+          <t>003-01-2406</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Olson</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>35922</v>
+        <v>36223</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5015 Tonya Point Suite 767
-Lake Bridget, WV 33991</t>
+          <t>86707 Sandy Valleys Suite 543
+Lake Davidville, KS 38193</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>lucasphyllis@gmail.com</t>
+          <t>gtran@yahoo.com</t>
         </is>
       </c>
       <c r="I3" t="n">
+        <v>77</v>
+      </c>
+      <c r="J3" t="n">
+        <v>79</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75</v>
+      </c>
+      <c r="L3" t="n">
         <v>83</v>
       </c>
-      <c r="J3" t="n">
-        <v>86</v>
-      </c>
-      <c r="K3" t="n">
-        <v>89</v>
-      </c>
-      <c r="L3" t="n">
-        <v>92</v>
-      </c>
       <c r="M3" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N3" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O3" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P3" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R3" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="S3" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="T3" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="U3" t="n">
-        <v>85.54000000000001</v>
+        <v>90.36</v>
       </c>
       <c r="V3" t="n">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>91.84999999999999</v>
+        <v>91.33</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>5.85</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.52</v>
+        <v>5.74</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -4143,99 +3851,99 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>742-55-3612</t>
+          <t>186-71-2413</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Grant</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>White</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="n">
-        <v>36127</v>
+        <v>36555</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>357 Cynthia Mission
-North Andrewtown, SD 16364</t>
+          <t>659 Donald Mill
+Moorestad, TN 81070</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>chungjeffery@gmail.com</t>
+          <t>laurenwright@yahoo.com</t>
         </is>
       </c>
       <c r="I4" t="n">
+        <v>81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O4" t="n">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
         <v>75</v>
       </c>
-      <c r="J4" t="n">
-        <v>77</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
+        <v>73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>74</v>
+      </c>
+      <c r="S4" t="n">
         <v>76</v>
       </c>
-      <c r="L4" t="n">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>77</v>
-      </c>
-      <c r="P4" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>72</v>
-      </c>
-      <c r="R4" t="n">
-        <v>67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>77</v>
-      </c>
       <c r="T4" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="U4" t="n">
-        <v>91.87</v>
+        <v>95.13</v>
       </c>
       <c r="V4" t="n">
-        <v>8.130000000000001</v>
+        <v>4.87</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>100</v>
+        <v>84.39</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.35</v>
+        <v>6.62</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.43</v>
+        <v>5.74</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -4251,22 +3959,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>825-41-5620</t>
+          <t>026-27-4747</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Gary</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fuentes</t>
+          <t>Harmon</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4275,72 +3983,72 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>36488</v>
+        <v>37046</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>937 Foster Overpass
-Smithmouth, KS 38972</t>
+          <t>418 Lindsey Views
+East Kimmouth, LA 15142</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>milleramy@yahoo.com</t>
+          <t>james31@gmail.com</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L5" t="n">
         <v>66</v>
       </c>
       <c r="M5" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N5" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="n">
         <v>67</v>
       </c>
       <c r="R5" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S5" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T5" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U5" t="n">
-        <v>71.22</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>28.78</v>
+        <v>29.51</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>81.95999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.6</v>
+        <v>4.08</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.83</v>
+        <v>5.01</v>
       </c>
       <c r="AA5" t="n">
         <v>1</v>
@@ -4359,99 +4067,99 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>346-98-3502</t>
+          <t>170-82-9049</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>35965</v>
+        <v>35970</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>308 Jordan Track Apt. 679
-Owenburgh, PA 76450</t>
+          <t>572 Crystal Parkway
+Samanthaburgh, RI 95034</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>brandon78@hotmail.com</t>
+          <t>millerevan@yahoo.com</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="L6" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M6" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O6" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="P6" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="S6" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="T6" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="U6" t="n">
-        <v>99.65000000000001</v>
+        <v>73.22</v>
       </c>
       <c r="V6" t="n">
-        <v>0.35</v>
+        <v>26.78</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>100</v>
+        <v>59.92</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.68</v>
+        <v>4.23</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.58</v>
+        <v>4.27</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -4467,17 +4175,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>027-81-3068</t>
+          <t>321-29-9849</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Kathleen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brock</t>
+          <t>Knox</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4491,75 +4199,75 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>35837</v>
+        <v>36057</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>876 Nichols Locks Suite 413
-West Erika, GA 98397</t>
+          <t>27156 Woods Road Apt. 435
+Ryanchester, MA 00988</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>rwilliams@gmail.com</t>
+          <t>johnramirez@yahoo.com</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K7" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="L7" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M7" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N7" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O7" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="R7" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="S7" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="T7" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>100</v>
+        <v>69.14</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.03</v>
+        <v>4.26</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.07</v>
+        <v>2.93</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -4575,17 +4283,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>430-40-6496</t>
+          <t>547-05-0943</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Herman</t>
+          <t>Le</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4599,60 +4307,60 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>36920</v>
+        <v>36068</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22555 Jeffrey Avenue Apt. 221
-Brendanland, MA 72783</t>
+          <t>PSC 7717, Box 1318
+APO AE 40099</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>crawfordmichelle@yahoo.com</t>
+          <t>susanmiller@hotmail.com</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J8" t="n">
+        <v>77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>79</v>
+      </c>
+      <c r="L8" t="n">
+        <v>80</v>
+      </c>
+      <c r="M8" t="n">
+        <v>82</v>
+      </c>
+      <c r="N8" t="n">
         <v>78</v>
       </c>
-      <c r="K8" t="n">
-        <v>83</v>
-      </c>
-      <c r="L8" t="n">
-        <v>83</v>
-      </c>
-      <c r="M8" t="n">
-        <v>86</v>
-      </c>
-      <c r="N8" t="n">
-        <v>74</v>
-      </c>
       <c r="O8" t="n">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>79</v>
+      </c>
+      <c r="R8" t="n">
         <v>81</v>
       </c>
-      <c r="P8" t="n">
-        <v>83</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>82</v>
-      </c>
-      <c r="R8" t="n">
-        <v>84</v>
-      </c>
       <c r="S8" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U8" t="n">
-        <v>99.98</v>
+        <v>71.44</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02</v>
+        <v>28.56</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -4661,13 +4369,13 @@
         <v>100</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.37</v>
+        <v>5.78</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.62</v>
+        <v>4.21</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -4683,17 +4391,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>340-45-2223</t>
+          <t>520-57-5652</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4707,75 +4415,75 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>36475</v>
+        <v>36247</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2872 Nathan Villages
-Coxberg, AK 18299</t>
+          <t>101 Bowman Bypass
+Ballstad, MT 22544</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>thomasbilly@gmail.com</t>
+          <t>ireynolds@yahoo.com</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K9" t="n">
         <v>72</v>
       </c>
       <c r="L9" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M9" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N9" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O9" t="n">
         <v>71</v>
       </c>
       <c r="P9" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R9" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="S9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T9" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U9" t="n">
-        <v>92.09</v>
+        <v>100</v>
       </c>
       <c r="V9" t="n">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>74.34</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -4791,99 +4499,99 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>173-85-3033</t>
+          <t>721-31-9633</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Powers</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>37079</v>
+        <v>36482</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>025 Jill Unions
-Rosefurt, DC 41778</t>
+          <t>8047 Ryan Crossing Apt. 887
+East Ricky, IN 60077</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>agriffin@gmail.com</t>
+          <t>nestrada@yahoo.com</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J10" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K10" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L10" t="n">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="M10" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N10" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O10" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="R10" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="S10" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="T10" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="U10" t="n">
-        <v>83.31</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>16.69</v>
+        <v>17.46</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>94.75</v>
+        <v>42.65</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>3.28</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.91</v>
+        <v>4.45</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -4899,17 +4607,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>028-53-6917</t>
+          <t>706-88-9815</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sheppard</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4923,72 +4631,72 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>37214</v>
+        <v>36668</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>69976 Gardner Courts Suite 187
-East Kristenmouth, MT 87904</t>
+          <t>324 Meghan River
+North Gabriella, AK 13751</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>mccormickmichael@gmail.com</t>
+          <t>bgonzalez@yahoo.com</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K11" t="n">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="L11" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="M11" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N11" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="O11" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="Q11" t="n">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="R11" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="S11" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="T11" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="U11" t="n">
-        <v>100</v>
+        <v>72.87</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>27.13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>100</v>
+        <v>63.24</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.79</v>
+        <v>3.31</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -5007,22 +4715,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>544-59-7318</t>
+          <t>728-04-3945</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Spencer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hill</t>
+          <t>Collins</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5031,75 +4739,75 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>36940</v>
+        <v>37251</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9332 King Branch
-Port Anthony, NV 95742</t>
+          <t>4716 Chris Circle Suite 186
+Nguyenland, WI 29610</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>veronica97@gmail.com</t>
+          <t>cooleyemily@gmail.com</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>79</v>
       </c>
       <c r="J12" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M12" t="n">
         <v>78</v>
       </c>
       <c r="N12" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P12" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R12" t="n">
         <v>77</v>
       </c>
       <c r="S12" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="T12" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U12" t="n">
-        <v>99.03</v>
+        <v>100</v>
       </c>
       <c r="V12" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>100</v>
+        <v>97.62</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.24</v>
+        <v>6.05</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.9</v>
+        <v>5.05</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -5115,17 +4823,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>122-09-9341</t>
+          <t>822-73-5469</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gibson</t>
+          <t>Mckee</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5139,75 +4847,75 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>36217</v>
+        <v>36318</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PSC 0235, Box 4718
-APO AP 08920</t>
+          <t>025 Santos Green Suite 152
+Rhondaborough, IN 40582</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>vcarroll@gmail.com</t>
+          <t>manuel82@hotmail.com</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N13" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O13" t="n">
         <v>73</v>
       </c>
       <c r="P13" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="n">
         <v>72</v>
       </c>
       <c r="R13" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S13" t="n">
         <v>71</v>
       </c>
       <c r="T13" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U13" t="n">
-        <v>81.56</v>
+        <v>84.17</v>
       </c>
       <c r="V13" t="n">
-        <v>18.44</v>
+        <v>15.83</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>96.11</v>
+        <v>85.39</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.7</v>
+        <v>5.73</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.76</v>
+        <v>4.83</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -5223,17 +4931,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>633-98-0744</t>
+          <t>785-49-0171</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Chelsey</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Berry</t>
+          <t>Glover</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5243,79 +4951,79 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>36688</v>
+        <v>36112</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7686 Davidson Motorway Apt. 201
-Jenningston, AZ 16145</t>
+          <t>3808 Peggy Trail
+Lake Haileyville, WV 73288</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>emilyweaver@gmail.com</t>
+          <t>smallchristopher@yahoo.com</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J14" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K14" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L14" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N14" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O14" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R14" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="S14" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T14" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="U14" t="n">
-        <v>100</v>
+        <v>72.3</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>94.62</v>
+        <v>66.77</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.01</v>
+        <v>3.92</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.3</v>
+        <v>4.69</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -5331,17 +5039,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>170-92-2933</t>
+          <t>514-71-0724</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wheeler</t>
+          <t>Mooney</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5351,79 +5059,79 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>36266</v>
+        <v>35887</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>USNS Lynn
-FPO AE 09143</t>
+          <t>71769 Davis Place
+West Lisa, UT 81999</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>brad92@hotmail.com</t>
+          <t>adamsscott@gmail.com</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="L15" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O15" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="R15" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="S15" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="T15" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="U15" t="n">
-        <v>100</v>
+        <v>95.38</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>76.34999999999999</v>
+        <v>93.06</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.37</v>
+        <v>4.57</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.79</v>
+        <v>4.98</v>
       </c>
       <c r="AA15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -5439,17 +5147,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>034-13-0527</t>
+          <t>405-90-5170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Renee</t>
+          <t>Tanya</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Stewart</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5459,79 +5167,79 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>36809</v>
+        <v>36189</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>USNS Gay
-FPO AA 71977</t>
+          <t>7946 Elizabeth Falls Apt. 392
+North Victoria, AL 37259</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>carlosmendez@yahoo.com</t>
+          <t>peter36@gmail.com</t>
         </is>
       </c>
       <c r="I16" t="n">
+        <v>81</v>
+      </c>
+      <c r="J16" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80</v>
+      </c>
+      <c r="L16" t="n">
+        <v>81</v>
+      </c>
+      <c r="M16" t="n">
+        <v>85</v>
+      </c>
+      <c r="N16" t="n">
+        <v>80</v>
+      </c>
+      <c r="O16" t="n">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q16" t="n">
         <v>79</v>
       </c>
-      <c r="J16" t="n">
+      <c r="R16" t="n">
+        <v>82</v>
+      </c>
+      <c r="S16" t="n">
         <v>78</v>
       </c>
-      <c r="K16" t="n">
-        <v>83</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="T16" t="n">
         <v>82</v>
       </c>
-      <c r="M16" t="n">
-        <v>80</v>
-      </c>
-      <c r="N16" t="n">
-        <v>77</v>
-      </c>
-      <c r="O16" t="n">
-        <v>81</v>
-      </c>
-      <c r="P16" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>84</v>
-      </c>
-      <c r="R16" t="n">
-        <v>83</v>
-      </c>
-      <c r="S16" t="n">
-        <v>83</v>
-      </c>
-      <c r="T16" t="n">
-        <v>83</v>
-      </c>
       <c r="U16" t="n">
-        <v>94.73999999999999</v>
+        <v>90</v>
       </c>
       <c r="V16" t="n">
-        <v>5.26</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>100</v>
+        <v>98.52</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.88</v>
+        <v>6.86</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.71</v>
+        <v>5.32</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -5547,17 +5255,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>865-84-1184</t>
+          <t>245-01-7309</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Ferrell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5571,75 +5279,75 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>36013</v>
+        <v>35485</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>60001 Baker Ridge
-Lake Scott, DC 71033</t>
+          <t>161 Stacy Forest Apt. 866
+New Danielton, OH 33728</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>paulanorton@hotmail.com</t>
+          <t>collinsullivan@hotmail.com</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J17" t="n">
         <v>82</v>
       </c>
       <c r="K17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L17" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M17" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N17" t="n">
+        <v>82</v>
+      </c>
+      <c r="O17" t="n">
+        <v>81</v>
+      </c>
+      <c r="P17" t="n">
         <v>80</v>
       </c>
-      <c r="O17" t="n">
-        <v>83</v>
-      </c>
-      <c r="P17" t="n">
-        <v>86</v>
-      </c>
       <c r="Q17" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="R17" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="S17" t="n">
         <v>83</v>
       </c>
       <c r="T17" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U17" t="n">
-        <v>100</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>10.32</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>97.2</v>
+        <v>83.78</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.67</v>
+        <v>5.44</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -5655,78 +5363,78 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>391-41-9286</t>
+          <t>323-49-3185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kristy</t>
+          <t>Miguel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Matthews</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>35809</v>
+        <v>36582</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>93726 Kenneth Cliffs Suite 903
-Lake Victoriaburgh, NV 21361</t>
+          <t>93654 Nichols Isle
+Lauramouth, TN 90478</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>christy11@hotmail.com</t>
+          <t>beckzachary@gmail.com</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J18" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K18" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L18" t="n">
+        <v>75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>81</v>
+      </c>
+      <c r="N18" t="n">
+        <v>78</v>
+      </c>
+      <c r="O18" t="n">
+        <v>72</v>
+      </c>
+      <c r="P18" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>70</v>
+      </c>
+      <c r="R18" t="n">
+        <v>77</v>
+      </c>
+      <c r="S18" t="n">
         <v>73</v>
       </c>
-      <c r="M18" t="n">
-        <v>74</v>
-      </c>
-      <c r="N18" t="n">
-        <v>74</v>
-      </c>
-      <c r="O18" t="n">
-        <v>73</v>
-      </c>
-      <c r="P18" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>71</v>
-      </c>
-      <c r="R18" t="n">
-        <v>72</v>
-      </c>
-      <c r="S18" t="n">
-        <v>72</v>
-      </c>
       <c r="T18" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="U18" t="n">
         <v>100</v>
@@ -5738,16 +5446,16 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>79.04000000000001</v>
+        <v>69.88</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.59</v>
+        <v>5.97</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.41</v>
+        <v>3.92</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -5763,17 +5471,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>239-89-5529</t>
+          <t>160-46-5345</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Mcgee</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5783,79 +5491,79 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>36560</v>
+        <v>36478</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05555 Joseph Mountain
-West Anthonymouth, CO 01774</t>
+          <t>5372 Casey Track Suite 662
+West Jason, FL 39692</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ksoto@gmail.com</t>
+          <t>ericlopez@hotmail.com</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J19" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K19" t="n">
+        <v>85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>88</v>
+      </c>
+      <c r="M19" t="n">
+        <v>88</v>
+      </c>
+      <c r="N19" t="n">
         <v>82</v>
       </c>
-      <c r="L19" t="n">
-        <v>86</v>
-      </c>
-      <c r="M19" t="n">
-        <v>86</v>
-      </c>
-      <c r="N19" t="n">
-        <v>74</v>
-      </c>
       <c r="O19" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="P19" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q19" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="R19" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S19" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="T19" t="n">
         <v>85</v>
       </c>
       <c r="U19" t="n">
-        <v>96.7</v>
+        <v>93.53</v>
       </c>
       <c r="V19" t="n">
-        <v>3.3</v>
+        <v>6.47</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>99.73</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.56</v>
+        <v>6.04</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.57</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -5871,84 +5579,84 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>793-16-6965</t>
+          <t>739-83-2037</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gross</t>
+          <t>Travis</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mixed</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>36643</v>
+        <v>35767</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8935 Erika Harbors Apt. 600
-New Michael, NY 96410</t>
+          <t>158 Amanda Stravenue Apt. 331
+Garzastad, NM 89968</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>lschmidt@hotmail.com</t>
+          <t>montgomerycharles@yahoo.com</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J20" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L20" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N20" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O20" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P20" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q20" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R20" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="S20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T20" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U20" t="n">
-        <v>93.92</v>
+        <v>100</v>
       </c>
       <c r="V20" t="n">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -5957,13 +5665,13 @@
         <v>100</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.41</v>
+        <v>7.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>4.62</v>
+        <v>2.26</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -5979,99 +5687,99 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>450-86-6378</t>
+          <t>174-36-8394</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mason</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>36170</v>
+        <v>37080</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9803 Warren Summit Suite 064
-New Deborah, OR 81511</t>
+          <t>325 Gary Manors Apt. 936
+Butlerport, MS 72805</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>jennifer33@gmail.com</t>
+          <t>wporter@gmail.com</t>
         </is>
       </c>
       <c r="I21" t="n">
+        <v>83</v>
+      </c>
+      <c r="J21" t="n">
         <v>86</v>
       </c>
-      <c r="J21" t="n">
-        <v>90</v>
-      </c>
       <c r="K21" t="n">
+        <v>92</v>
+      </c>
+      <c r="L21" t="n">
         <v>91</v>
       </c>
-      <c r="L21" t="n">
-        <v>95</v>
-      </c>
       <c r="M21" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N21" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O21" t="n">
         <v>88</v>
       </c>
       <c r="P21" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q21" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R21" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T21" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="U21" t="n">
-        <v>100</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>100</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.67</v>
+        <v>7.77</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.03</v>
+        <v>6.83</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -6087,17 +5795,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>727-96-2959</t>
+          <t>063-83-9098</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6107,79 +5815,79 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>37122</v>
+        <v>35539</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>281 Edwards Dam Suite 922
-Port Justinfort, DE 96163</t>
+          <t>75086 Kelli Inlet Apt. 672
+Lake Manueltown, OK 93054</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>zcook@hotmail.com</t>
+          <t>sperez@hotmail.com</t>
         </is>
       </c>
       <c r="I22" t="n">
+        <v>75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>74</v>
+      </c>
+      <c r="K22" t="n">
         <v>76</v>
       </c>
-      <c r="J22" t="n">
-        <v>81</v>
-      </c>
-      <c r="K22" t="n">
-        <v>81</v>
-      </c>
       <c r="L22" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M22" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N22" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O22" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P22" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R22" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S22" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T22" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U22" t="n">
-        <v>98.16</v>
+        <v>68.17</v>
       </c>
       <c r="V22" t="n">
-        <v>1.84</v>
+        <v>31.83</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>100</v>
+        <v>95.97</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.57</v>
+        <v>3.87</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -6195,17 +5903,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>094-76-4650</t>
+          <t>123-11-8801</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Roberts</t>
+          <t>Ramirez</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6219,75 +5927,75 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>36796</v>
+        <v>36778</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0321 Michele Summit
-Paulside, AR 37318</t>
+          <t>4247 Scott Key Suite 994
+Kellieberg, GA 54930</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>rebecca07@hotmail.com</t>
+          <t>cheyennejackson@hotmail.com</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J23" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L23" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M23" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O23" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P23" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q23" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R23" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="S23" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="T23" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="U23" t="n">
-        <v>95.42</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>4.58</v>
+        <v>3.6</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>100</v>
+        <v>88.83</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.51</v>
+        <v>6.68</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.45</v>
+        <v>7.81</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -6303,17 +6011,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>815-17-3989</t>
+          <t>059-73-7013</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Bean</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6323,79 +6031,79 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>36693</v>
+        <v>35811</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PSC 8770, Box 3465
-APO AA 19643</t>
+          <t>236 Weber Forest Apt. 867
+Bakerside, MT 47690</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ccastillo@gmail.com</t>
+          <t>cannonjeremy@gmail.com</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J24" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L24" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M24" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N24" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O24" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q24" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R24" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="S24" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T24" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="U24" t="n">
-        <v>100</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>87.41</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.57</v>
+        <v>4.66</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.62</v>
+        <v>6.08</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -6411,22 +6119,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>802-44-4701</t>
+          <t>342-06-3353</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cathy</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6435,75 +6143,75 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>35922</v>
+        <v>36252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Unit 3194 Box 2641
-DPO AA 43988</t>
+          <t>51041 Mitchell Hills
+Loriview, DE 39346</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>thompsonjessica@gmail.com</t>
+          <t>ghernandez@yahoo.com</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K25" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L25" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M25" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N25" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O25" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P25" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="Q25" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="R25" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="S25" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="T25" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="U25" t="n">
-        <v>89.95</v>
+        <v>70.33</v>
       </c>
       <c r="V25" t="n">
-        <v>10.05</v>
+        <v>29.67</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>98.75</v>
+        <v>52.28</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.63</v>
+        <v>4.99</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.44</v>
+        <v>5.51</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -6519,17 +6227,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>640-81-5595</t>
+          <t>118-28-8775</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Dale</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Morrison</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6543,60 +6251,60 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>37024</v>
+        <v>36186</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>47946 Linda Fork Apt. 734
-Steinland, MO 39791</t>
+          <t>329 Anderson Gateway
+North Josephhaven, TN 54894</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>michael06@gmail.com</t>
+          <t>ihutchinson@gmail.com</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J26" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K26" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L26" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M26" t="n">
+        <v>74</v>
+      </c>
+      <c r="N26" t="n">
         <v>77</v>
       </c>
-      <c r="N26" t="n">
-        <v>80</v>
-      </c>
       <c r="O26" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="P26" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q26" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R26" t="n">
+        <v>71</v>
+      </c>
+      <c r="S26" t="n">
+        <v>74</v>
+      </c>
+      <c r="T26" t="n">
         <v>77</v>
       </c>
-      <c r="S26" t="n">
-        <v>87</v>
-      </c>
-      <c r="T26" t="n">
-        <v>78</v>
-      </c>
       <c r="U26" t="n">
-        <v>85.12</v>
+        <v>99.91</v>
       </c>
       <c r="V26" t="n">
-        <v>14.88</v>
+        <v>0.09</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -6605,13 +6313,13 @@
         <v>100</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.69</v>
+        <v>5.02</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.35</v>
+        <v>4.54</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -6627,17 +6335,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>437-68-7299</t>
+          <t>355-90-3321</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Webb</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6651,75 +6359,75 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>35934</v>
+        <v>36660</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PSC 8922, Box 2363
-APO AA 81553</t>
+          <t>64493 Rodriguez Burg
+Stephanieshire, NC 96880</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>robertcantrell@yahoo.com</t>
+          <t>larry52@hotmail.com</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J27" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
+        <v>88</v>
+      </c>
+      <c r="L27" t="n">
+        <v>90</v>
+      </c>
+      <c r="M27" t="n">
+        <v>93</v>
+      </c>
+      <c r="N27" t="n">
         <v>77</v>
       </c>
-      <c r="L27" t="n">
-        <v>74</v>
-      </c>
-      <c r="M27" t="n">
-        <v>73</v>
-      </c>
-      <c r="N27" t="n">
-        <v>74</v>
-      </c>
       <c r="O27" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P27" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q27" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="R27" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="S27" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="T27" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="U27" t="n">
-        <v>100</v>
+        <v>97.81</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>100</v>
+        <v>93.81</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.78</v>
+        <v>6.84</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.94</v>
+        <v>6.33</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -6735,22 +6443,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>642-28-6061</t>
+          <t>542-48-0799</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Moreno</t>
+          <t>Hanson</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6759,54 +6467,54 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>36360</v>
+        <v>37202</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7289 James Corners Apt. 567
-West Margaretshire, MT 44059</t>
+          <t>98436 Mitchell Shore
+Browntown, NJ 59007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>robertsonclinton@hotmail.com</t>
+          <t>chensley@hotmail.com</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J28" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K28" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L28" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M28" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="N28" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O28" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Q28" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="R28" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="S28" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T28" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="U28" t="n">
         <v>100</v>
@@ -6818,16 +6526,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>98.94</v>
+        <v>100</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.55</v>
+        <v>6</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.46</v>
+        <v>6.61</v>
       </c>
       <c r="AA28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -6843,78 +6551,78 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>667-72-1300</t>
+          <t>562-33-6082</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vickie</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>36139</v>
+        <v>36116</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>88610 Raven Landing Apt. 616
-East Ericabury, WY 60682</t>
+          <t>47831 Lori Ville Suite 062
+Garnerview, NY 76234</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>hawkinskimberly@hotmail.com</t>
+          <t>bobby96@yahoo.com</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K29" t="n">
+        <v>70</v>
+      </c>
+      <c r="L29" t="n">
+        <v>70</v>
+      </c>
+      <c r="M29" t="n">
         <v>72</v>
       </c>
-      <c r="L29" t="n">
-        <v>74</v>
-      </c>
-      <c r="M29" t="n">
-        <v>80</v>
-      </c>
       <c r="N29" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O29" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P29" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q29" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R29" t="n">
+        <v>69</v>
+      </c>
+      <c r="S29" t="n">
         <v>77</v>
       </c>
-      <c r="S29" t="n">
-        <v>78</v>
-      </c>
       <c r="T29" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="U29" t="n">
         <v>100</v>
@@ -6926,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>97.06</v>
+        <v>100</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.15</v>
+        <v>4.87</v>
       </c>
       <c r="Z29" t="n">
-        <v>4.32</v>
+        <v>5.3</v>
       </c>
       <c r="AA29" t="n">
         <v>1</v>
